--- a/Rapport/includes/risikomanagement.xlsx
+++ b/Rapport/includes/risikomanagement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Risc</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Mitigation</t>
   </si>
   <si>
-    <t>IDE virker ikke som forventet</t>
-  </si>
-  <si>
     <t>Emulator viser ikke rigtige resultat</t>
   </si>
   <si>
@@ -48,16 +45,25 @@
     <t>Anskaffe os hardware til test af vores software</t>
   </si>
   <si>
-    <t>Skifte teknologi til windows phone eller mobile web</t>
-  </si>
-  <si>
-    <t>Lave vores egen database med dummy data</t>
-  </si>
-  <si>
-    <t>Skifte værktøj og evt. teknologi</t>
-  </si>
-  <si>
-    <t>Simplifisere opgaven</t>
+    <t>Ikke nok erfaring med App udviklings</t>
+  </si>
+  <si>
+    <t>Skifte til mobile web</t>
+  </si>
+  <si>
+    <t>Skifte teknologi til windows phone eller mobile web tideligt i processen</t>
+  </si>
+  <si>
+    <t>Problemer med IDE</t>
+  </si>
+  <si>
+    <t>Lave vores egen database med dummy data, spike</t>
+  </si>
+  <si>
+    <t>Spike, Simplifisere opgaven</t>
+  </si>
+  <si>
+    <t>Spike, Skifte værktøj og evt. teknologi</t>
   </si>
 </sst>
 </file>
@@ -405,17 +411,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="C1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4">
@@ -428,55 +434,59 @@
     </row>
     <row r="2" spans="3:4">
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" s="1"/>

--- a/Rapport/includes/risikomanagement.xlsx
+++ b/Rapport/includes/risikomanagement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Risc</t>
   </si>
@@ -64,6 +64,36 @@
   </si>
   <si>
     <t>Spike, Skifte værktøj og evt. teknologi</t>
+  </si>
+  <si>
+    <t>Kan ikke finde ud af at lave test-first</t>
+  </si>
+  <si>
+    <t>Sikre korrekt estimering af task</t>
+  </si>
+  <si>
+    <t>Gruppemedlem sidder fast i en opgave</t>
+  </si>
+  <si>
+    <t>Vidensdeling og kommunikation i gruppen</t>
+  </si>
+  <si>
+    <t>Gruppemedlem ikke tilstede hele sprint</t>
+  </si>
+  <si>
+    <t>Lade være</t>
+  </si>
+  <si>
+    <t>Planning poker</t>
+  </si>
+  <si>
+    <t>Pair programming eller give opgaven videre</t>
+  </si>
+  <si>
+    <t>Benytte tavlen, dele materiale</t>
+  </si>
+  <si>
+    <t>CARE</t>
   </si>
 </sst>
 </file>
@@ -414,7 +444,7 @@
   <dimension ref="C1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -489,24 +519,44 @@
       </c>
     </row>
     <row r="9" spans="3:4">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" s="1"/>
